--- a/error_rankings/biodivner/pure_noise_full_prompts_small_models_error_counts.xlsx
+++ b/error_rankings/biodivner/pure_noise_full_prompts_small_models_error_counts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,12 +566,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Centre for Integrative Biodiversity Research</t>
+          <t>monocultures</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORGANIZATION</t>
+          <t>ORGANSIM</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -584,12 +584,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>monocultures</t>
+          <t>German Centre for Integrative Biodiversity Research</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORGANSIM</t>
+          <t>ORGANIZATION</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -764,7 +764,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lysozyme</t>
+          <t>lysenins</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -818,12 +818,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lysenins</t>
+          <t>Species Helper column</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROTEIN</t>
+          <t>COLUMN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -836,12 +836,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Species Helper column</t>
+          <t>lysozyme</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COLUMN</t>
+          <t>PROTEIN</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -944,12 +944,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>target group</t>
+          <t>Splashcups</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUALITY</t>
+          <t>ORGANIISM</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -962,12 +962,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Splashcups</t>
+          <t>Section Ecosystem Functions</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ORGANIISM</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -980,12 +980,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Section Ecosystem Functions</t>
+          <t>Soller and Reheis</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>ORGANIZATION</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -998,12 +998,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Soller and Reheis</t>
+          <t>Alexandra Erfmeier</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ORGANIZATION</t>
+          <t>PERSON</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1016,12 +1016,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Goddert</t>
+          <t>Alexandra-Maria Klein</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PERSON</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1034,7 +1034,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alexandra-Maria Klein</t>
+          <t>Andreas Schuldt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>PERSON</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PERSON</t>
+          <t>PERSON (ORGANISM)</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1088,12 +1088,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Andreas Schuldt</t>
+          <t>Anja FankhÃ¤nel</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PERSON (ORGANISM)</t>
+          <t>PERSON</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1106,12 +1106,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Anja FankhÃ¤nel</t>
+          <t>Centre for Integrative Biodiversity Research (iDiv)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PERSON</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1124,12 +1124,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Centre for Integrative Biodiversity Research (iDiv)</t>
+          <t>Chair of Nature Conservation and Landscape Ecology</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>ORGANIZATION</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ORGANIZATION</t>
+          <t>ORGANIZATION (ENVIRONMENT)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1160,12 +1160,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Chair of Nature Conservation and Landscape Ecology</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ORGANIZATION (ENVIRONMENT)</t>
+          <t>PERSON</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1178,12 +1178,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Fish Health Unit</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PERSON</t>
+          <t>ORGANSIM</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1196,12 +1196,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fish Health Unit</t>
+          <t>German Centre for Integrative Biodiversity Research</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ORGANSIM</t>
+          <t>ORGANIZATION (ENVIRONMENT)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1214,12 +1214,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>German Centre for Integrative Biodiversity Research</t>
+          <t>Goddert</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ORGANIZATION (ENVIRONMENT)</t>
+          <t>PERSON</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1250,7 +1250,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Alexandra Erfmeier</t>
+          <t>Helge Bruelheide</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1268,12 +1268,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Helge Bruelheide</t>
+          <t>Institute of Ecology and Environmental Chemistry</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PERSON</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>ORGANIZATION</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1304,12 +1304,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Institute of Ecology and Environmental Chemistry</t>
+          <t>Laboratory number of laboratory of soil science and geoecology</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ORGANIZATION</t>
+          <t>LOC</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1322,12 +1322,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Laboratory number of laboratory of soil science and geoecology</t>
+          <t>Leuphana University of Lueneburg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LOC</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>ORGANIZATION</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1358,12 +1358,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Leuphana University of Lueneburg</t>
+          <t>MMAIII</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ORGANIZATION</t>
+          <t>CHEMICAL</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1376,7 +1376,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MMAIII</t>
+          <t>MMAV</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1394,12 +1394,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MMAV</t>
+          <t>Michael Staab</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CHEMICAL</t>
+          <t>PERSON (ORGANISM)</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1412,12 +1412,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Michael Staab</t>
+          <t>Plant and Animal Species Atlas</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PERSON (ORGANISM)</t>
+          <t>质量</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1430,54 +1430,18 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Plant and Animal Species Atlas</t>
+          <t>vegetation_class</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUALITY</t>
+          <t>STRING</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Plant and Animal Species Atlas</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>质量</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>vegetation_class</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>STRING</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
         <v>0.08333333333333333</v>
       </c>
     </row>
